--- a/Carbon-TestCase.xlsx
+++ b/Carbon-TestCase.xlsx
@@ -84,15 +84,6 @@
     <t>Authentication</t>
   </si>
   <si>
-    <t>User should be able to login</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Error returned (No Network available when the Network is fine)</t>
-  </si>
-  <si>
     <t>Username - 089 9000 1100
 PIN - 1234</t>
   </si>
@@ -103,6 +94,15 @@
     <t>1.Enter username
 2. Enter PIN
 3. Tap login button</t>
+  </si>
+  <si>
+    <t>Successful Login</t>
+  </si>
+  <si>
+    <t>Login Inconsistent</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -205,12 +205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -218,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,10 +269,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,22 +295,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,21 +621,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
@@ -645,44 +645,44 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
         <f>COUNTIF(H9:H20, "F")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1">
         <f>COUNTIF(H9:H20, "N")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4">
         <v>44254</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1">
@@ -691,7 +691,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1">
@@ -700,7 +700,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -734,53 +734,53 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="H9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Carbon-TestCase.xlsx
+++ b/Carbon-TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CARBON MOBILE APP</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Login fails most times with "Network error", it also logs in other times</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,10 +298,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1">
@@ -733,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -755,10 +758,12 @@
       <c r="G9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>

--- a/Carbon-TestCase.xlsx
+++ b/Carbon-TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>CARBON MOBILE APP</t>
   </si>
@@ -106,6 +106,37 @@
   </si>
   <si>
     <t>Login fails most times with "Network error", it also logs in other times</t>
+  </si>
+  <si>
+    <t>CB-02</t>
+  </si>
+  <si>
+    <t>Airtime Recharge</t>
+  </si>
+  <si>
+    <t>Validate successful airtime recharge</t>
+  </si>
+  <si>
+    <t>1.Login successfully
+2. Tap on Buy Airtime Icon
+3. Enter Phone Number
+4. Enter amount
+5. Select Network
+6. Pay with card or Balance
+7. Click confirm payment button
+8. Enter PIN</t>
+  </si>
+  <si>
+    <t>Visacard</t>
+  </si>
+  <si>
+    <t>Successful Recharge</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -252,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -288,6 +319,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,9 +333,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,14 +639,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
@@ -624,33 +658,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1">
         <f>COUNTIF(H9:H20, "P")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
@@ -660,15 +694,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="1">
@@ -677,10 +711,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4">
         <v>44254</v>
       </c>
@@ -743,7 +777,7 @@
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -758,28 +792,44 @@
       <c r="G9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="18"/>
+    <row r="10" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>

--- a/Carbon-TestCase.xlsx
+++ b/Carbon-TestCase.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -323,6 +324,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,9 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -658,21 +659,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="F1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
@@ -682,9 +683,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
@@ -694,10 +695,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -711,10 +712,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4">
         <v>44254</v>
       </c>
@@ -821,12 +822,12 @@
       <c r="G10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="21" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
